--- a/cucumberframework/InputExcelData/Measurement.xlsx
+++ b/cucumberframework/InputExcelData/Measurement.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CucumberFramework-master\CucumberFramework-master\InputExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\git\TouchPointFramework\TouchPointFramework\cucumberframework\InputExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB77DD9E-5D99-44FF-8B30-0655711E6688}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FF13CBC-57AE-4DF6-9971-84615B3F0ECA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>Room</t>
   </si>
@@ -76,13 +76,70 @@
   </si>
   <si>
     <t>Family Room</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>System Description</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Closet</t>
+  </si>
+  <si>
+    <t>Slacks</t>
+  </si>
+  <si>
+    <t>Use to cover leg</t>
+  </si>
+  <si>
+    <t>Office</t>
+  </si>
+  <si>
+    <t>Workarea</t>
+  </si>
+  <si>
+    <t>Printer</t>
+  </si>
+  <si>
+    <t>Take print out whenever needed</t>
+  </si>
+  <si>
+    <t>Garage</t>
+  </si>
+  <si>
+    <t>Vehicles</t>
+  </si>
+  <si>
+    <t>Maintain Products</t>
+  </si>
+  <si>
+    <t>Used for travel purpose</t>
+  </si>
+  <si>
+    <t>Safety Guidence</t>
+  </si>
+  <si>
+    <t>Television</t>
+  </si>
+  <si>
+    <t>Entertainment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +167,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -131,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -141,6 +204,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -436,88 +500,193 @@
     <col min="5" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="1">
+        <v>27</v>
+      </c>
+      <c r="F2" s="1">
+        <v>41</v>
+      </c>
+      <c r="G2" s="1">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1">
+      <c r="K2" s="1">
         <v>23</v>
       </c>
-      <c r="E2" s="1">
+      <c r="L2" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="1">
+        <v>28</v>
+      </c>
+      <c r="F3" s="1">
+        <v>42</v>
+      </c>
+      <c r="G3" s="1">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1">
+      <c r="K3" s="1">
         <v>24</v>
       </c>
-      <c r="E3" s="1">
+      <c r="L3" s="1">
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="1">
+        <v>29</v>
+      </c>
+      <c r="F4" s="1">
+        <v>43</v>
+      </c>
+      <c r="G4" s="1">
+        <v>17</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="1">
+      <c r="K4" s="1">
         <v>25</v>
       </c>
-      <c r="E4" s="1">
+      <c r="L4" s="1">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="1">
+        <v>30</v>
+      </c>
+      <c r="F5" s="1">
+        <v>44</v>
+      </c>
+      <c r="G5" s="1">
+        <v>18</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="1">
+      <c r="K5" s="1">
         <v>26</v>
       </c>
-      <c r="E5" s="1">
+      <c r="L5" s="1">
         <v>51</v>
       </c>
     </row>

--- a/cucumberframework/InputExcelData/Measurement.xlsx
+++ b/cucumberframework/InputExcelData/Measurement.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\git\TouchPointFramework\TouchPointFramework\cucumberframework\InputExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9FF13CBC-57AE-4DF6-9971-84615B3F0ECA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9455049-9C8F-4A16-851F-3D924C28971A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>Room</t>
   </si>
@@ -133,6 +133,21 @@
   </si>
   <si>
     <t>Entertainment</t>
+  </si>
+  <si>
+    <t>ImageName</t>
+  </si>
+  <si>
+    <t>communication log.png</t>
+  </si>
+  <si>
+    <t>camp.png</t>
+  </si>
+  <si>
+    <t>Before edit.png</t>
+  </si>
+  <si>
+    <t>After edit.png</t>
   </si>
 </sst>
 </file>
@@ -485,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -497,10 +512,12 @@
     <col min="2" max="2" width="19.44140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.44140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.109375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="1"/>
+    <col min="5" max="12" width="8.88671875" style="1"/>
+    <col min="13" max="13" width="13.77734375" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -537,8 +554,11 @@
       <c r="L1" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="M1" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -575,8 +595,11 @@
       <c r="L2" s="1">
         <v>54</v>
       </c>
+      <c r="M2" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>25</v>
       </c>
@@ -613,8 +636,11 @@
       <c r="L3" s="1">
         <v>53</v>
       </c>
+      <c r="M3" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>29</v>
       </c>
@@ -651,8 +677,11 @@
       <c r="L4" s="1">
         <v>52</v>
       </c>
+      <c r="M4" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>25</v>
       </c>
@@ -688,6 +717,9 @@
       </c>
       <c r="L5" s="1">
         <v>51</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/cucumberframework/InputExcelData/Measurement.xlsx
+++ b/cucumberframework/InputExcelData/Measurement.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\git\TouchPointFramework\TouchPointFramework\cucumberframework\InputExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g6\git\uma_local_repository\TouchPointFramework\cucumberframework\InputExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9455049-9C8F-4A16-851F-3D924C28971A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA2BC37-90F0-4EA3-ADDE-3C33D9F50D88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="56">
   <si>
     <t>Room</t>
   </si>
@@ -148,6 +151,51 @@
   </si>
   <si>
     <t>After edit.png</t>
+  </si>
+  <si>
+    <t>No of rows to be copied</t>
+  </si>
+  <si>
+    <t>No of times the rows to be copied</t>
+  </si>
+  <si>
+    <t>Row no to be copied</t>
+  </si>
+  <si>
+    <t>window-measure1.jpg</t>
+  </si>
+  <si>
+    <t>window-measure2.jpg</t>
+  </si>
+  <si>
+    <t>window-measure3.jpg</t>
+  </si>
+  <si>
+    <t>window-measure4.jpg</t>
+  </si>
+  <si>
+    <t>window-measure5.jpg</t>
+  </si>
+  <si>
+    <t>MountType</t>
+  </si>
+  <si>
+    <t>WindowLocation</t>
+  </si>
+  <si>
+    <t>SystemDescription</t>
+  </si>
+  <si>
+    <t>Width1</t>
+  </si>
+  <si>
+    <t>Height2</t>
+  </si>
+  <si>
+    <t>Width2</t>
+  </si>
+  <si>
+    <t>Height1</t>
   </si>
 </sst>
 </file>
@@ -500,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="A6" sqref="A6:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -517,7 +565,7 @@
     <col min="14" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="72" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
@@ -557,8 +605,14 @@
       <c r="M1" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -596,10 +650,16 @@
         <v>54</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="N2" s="1">
+        <v>26</v>
+      </c>
+      <c r="O2" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>25</v>
       </c>
@@ -637,10 +697,10 @@
         <v>53</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>29</v>
       </c>
@@ -678,10 +738,10 @@
         <v>52</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>25</v>
       </c>
@@ -713,17 +773,2773 @@
         <v>15</v>
       </c>
       <c r="K5" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L5" s="1">
         <v>51</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F6E7D6-DB2C-488A-82EF-B6D0EBB9855D}">
+  <dimension ref="A1:N32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:M2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" style="1" customWidth="1"/>
+    <col min="5" max="12" width="8.88671875" style="1"/>
+    <col min="13" max="13" width="13.77734375" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" s="3"/>
+    </row>
+    <row r="2" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="1">
+        <v>27</v>
+      </c>
+      <c r="F2" s="1">
+        <v>41</v>
+      </c>
+      <c r="G2" s="1">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1">
+        <v>23</v>
+      </c>
+      <c r="L2" s="1">
+        <v>54</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="1">
+        <v>28</v>
+      </c>
+      <c r="F3" s="1">
+        <v>42</v>
+      </c>
+      <c r="G3" s="1">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="1">
+        <v>24</v>
+      </c>
+      <c r="L3" s="1">
+        <v>53</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="1">
+        <v>28</v>
+      </c>
+      <c r="F4" s="1">
+        <v>42</v>
+      </c>
+      <c r="G4" s="1">
+        <v>16</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="1">
+        <v>24</v>
+      </c>
+      <c r="L4" s="1">
+        <v>53</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="1">
+        <v>28</v>
+      </c>
+      <c r="F5" s="1">
+        <v>42</v>
+      </c>
+      <c r="G5" s="1">
+        <v>16</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K5" s="1">
+        <v>24</v>
+      </c>
+      <c r="L5" s="1">
+        <v>53</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="1">
+        <v>28</v>
+      </c>
+      <c r="F6" s="1">
+        <v>42</v>
+      </c>
+      <c r="G6" s="1">
+        <v>16</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="1">
+        <v>24</v>
+      </c>
+      <c r="L6" s="1">
+        <v>53</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="1">
+        <v>30</v>
+      </c>
+      <c r="F7" s="1">
+        <v>44</v>
+      </c>
+      <c r="G7" s="1">
+        <v>18</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="1">
+        <v>26</v>
+      </c>
+      <c r="L7" s="1">
+        <v>51</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="1">
+        <v>27</v>
+      </c>
+      <c r="F8" s="1">
+        <v>41</v>
+      </c>
+      <c r="G8" s="1">
+        <v>15</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="1">
+        <v>23</v>
+      </c>
+      <c r="L8" s="1">
+        <v>54</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="1">
+        <v>28</v>
+      </c>
+      <c r="F9" s="1">
+        <v>42</v>
+      </c>
+      <c r="G9" s="1">
+        <v>16</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="1">
+        <v>24</v>
+      </c>
+      <c r="L9" s="1">
+        <v>53</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="1">
+        <v>29</v>
+      </c>
+      <c r="F10" s="1">
+        <v>43</v>
+      </c>
+      <c r="G10" s="1">
+        <v>17</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="1">
+        <v>25</v>
+      </c>
+      <c r="L10" s="1">
+        <v>52</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="1">
+        <v>30</v>
+      </c>
+      <c r="F11" s="1">
+        <v>44</v>
+      </c>
+      <c r="G11" s="1">
+        <v>18</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="1">
+        <v>26</v>
+      </c>
+      <c r="L11" s="1">
+        <v>51</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="1">
+        <v>27</v>
+      </c>
+      <c r="F12" s="1">
+        <v>41</v>
+      </c>
+      <c r="G12" s="1">
+        <v>15</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="1">
+        <v>23</v>
+      </c>
+      <c r="L12" s="1">
+        <v>54</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="1">
+        <v>28</v>
+      </c>
+      <c r="F13" s="1">
+        <v>42</v>
+      </c>
+      <c r="G13" s="1">
+        <v>16</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="1">
+        <v>24</v>
+      </c>
+      <c r="L13" s="1">
+        <v>53</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="1">
+        <v>29</v>
+      </c>
+      <c r="F14" s="1">
+        <v>43</v>
+      </c>
+      <c r="G14" s="1">
+        <v>17</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" s="1">
+        <v>25</v>
+      </c>
+      <c r="L14" s="1">
+        <v>52</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="1">
+        <v>30</v>
+      </c>
+      <c r="F15" s="1">
+        <v>44</v>
+      </c>
+      <c r="G15" s="1">
+        <v>18</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K15" s="1">
+        <v>26</v>
+      </c>
+      <c r="L15" s="1">
+        <v>51</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="1">
+        <v>27</v>
+      </c>
+      <c r="F16" s="1">
+        <v>41</v>
+      </c>
+      <c r="G16" s="1">
+        <v>15</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" s="1">
+        <v>23</v>
+      </c>
+      <c r="L16" s="1">
+        <v>54</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="1">
+        <v>28</v>
+      </c>
+      <c r="F17" s="1">
+        <v>42</v>
+      </c>
+      <c r="G17" s="1">
+        <v>16</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K17" s="1">
+        <v>24</v>
+      </c>
+      <c r="L17" s="1">
+        <v>53</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="1">
+        <v>29</v>
+      </c>
+      <c r="F18" s="1">
+        <v>43</v>
+      </c>
+      <c r="G18" s="1">
+        <v>17</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K18" s="1">
+        <v>25</v>
+      </c>
+      <c r="L18" s="1">
+        <v>52</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="1">
+        <v>30</v>
+      </c>
+      <c r="F19" s="1">
+        <v>44</v>
+      </c>
+      <c r="G19" s="1">
+        <v>18</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" s="1">
+        <v>26</v>
+      </c>
+      <c r="L19" s="1">
+        <v>51</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="1">
+        <v>27</v>
+      </c>
+      <c r="F20" s="1">
+        <v>41</v>
+      </c>
+      <c r="G20" s="1">
+        <v>15</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K20" s="1">
+        <v>23</v>
+      </c>
+      <c r="L20" s="1">
+        <v>54</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="1">
+        <v>28</v>
+      </c>
+      <c r="F21" s="1">
+        <v>42</v>
+      </c>
+      <c r="G21" s="1">
+        <v>16</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K21" s="1">
+        <v>24</v>
+      </c>
+      <c r="L21" s="1">
+        <v>53</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="1">
+        <v>29</v>
+      </c>
+      <c r="F22" s="1">
+        <v>43</v>
+      </c>
+      <c r="G22" s="1">
+        <v>17</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K22" s="1">
+        <v>25</v>
+      </c>
+      <c r="L22" s="1">
+        <v>52</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="1">
+        <v>30</v>
+      </c>
+      <c r="F23" s="1">
+        <v>44</v>
+      </c>
+      <c r="G23" s="1">
+        <v>18</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K23" s="1">
+        <v>26</v>
+      </c>
+      <c r="L23" s="1">
+        <v>51</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="1">
+        <v>27</v>
+      </c>
+      <c r="F24" s="1">
+        <v>41</v>
+      </c>
+      <c r="G24" s="1">
+        <v>15</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K24" s="1">
+        <v>23</v>
+      </c>
+      <c r="L24" s="1">
+        <v>54</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="1">
+        <v>28</v>
+      </c>
+      <c r="F25" s="1">
+        <v>42</v>
+      </c>
+      <c r="G25" s="1">
+        <v>16</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K25" s="1">
+        <v>24</v>
+      </c>
+      <c r="L25" s="1">
+        <v>53</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="1">
+        <v>29</v>
+      </c>
+      <c r="F26" s="1">
+        <v>43</v>
+      </c>
+      <c r="G26" s="1">
+        <v>17</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" s="1">
+        <v>25</v>
+      </c>
+      <c r="L26" s="1">
+        <v>52</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="1">
+        <v>30</v>
+      </c>
+      <c r="F27" s="1">
+        <v>44</v>
+      </c>
+      <c r="G27" s="1">
+        <v>18</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K27" s="1">
+        <v>26</v>
+      </c>
+      <c r="L27" s="1">
+        <v>51</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="1">
+        <v>27</v>
+      </c>
+      <c r="F28" s="1">
+        <v>41</v>
+      </c>
+      <c r="G28" s="1">
+        <v>15</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K28" s="1">
+        <v>23</v>
+      </c>
+      <c r="L28" s="1">
+        <v>54</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="1">
+        <v>28</v>
+      </c>
+      <c r="F29" s="1">
+        <v>42</v>
+      </c>
+      <c r="G29" s="1">
+        <v>16</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K29" s="1">
+        <v>24</v>
+      </c>
+      <c r="L29" s="1">
+        <v>53</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="1">
+        <v>29</v>
+      </c>
+      <c r="F30" s="1">
+        <v>43</v>
+      </c>
+      <c r="G30" s="1">
+        <v>17</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K30" s="1">
+        <v>25</v>
+      </c>
+      <c r="L30" s="1">
+        <v>52</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="1">
+        <v>30</v>
+      </c>
+      <c r="F31" s="1">
+        <v>44</v>
+      </c>
+      <c r="G31" s="1">
+        <v>18</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K31" s="1">
+        <v>26</v>
+      </c>
+      <c r="L31" s="1">
+        <v>51</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" s="1">
+        <v>30</v>
+      </c>
+      <c r="F32" s="1">
+        <v>44</v>
+      </c>
+      <c r="G32" s="1">
+        <v>18</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K32" s="1">
+        <v>26</v>
+      </c>
+      <c r="L32" s="1">
+        <v>51</v>
+      </c>
+      <c r="M32" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{086FC283-D210-427F-A99F-0420CB663A1A}">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A4E04AB-FA45-42C7-BE48-C90F10DFA4B1}">
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="1">
+        <v>27</v>
+      </c>
+      <c r="F2" s="1">
+        <v>41</v>
+      </c>
+      <c r="G2" s="1">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1">
+        <v>23</v>
+      </c>
+      <c r="L2" s="1">
+        <v>54</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="1">
+        <v>28</v>
+      </c>
+      <c r="F3" s="1">
+        <v>42</v>
+      </c>
+      <c r="G3" s="1">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="1">
+        <v>24</v>
+      </c>
+      <c r="L3" s="1">
+        <v>53</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="1">
+        <v>29</v>
+      </c>
+      <c r="F4" s="1">
+        <v>43</v>
+      </c>
+      <c r="G4" s="1">
+        <v>17</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="1">
+        <v>25</v>
+      </c>
+      <c r="L4" s="1">
+        <v>52</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="1">
+        <v>30</v>
+      </c>
+      <c r="F5" s="1">
+        <v>44</v>
+      </c>
+      <c r="G5" s="1">
+        <v>18</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="1">
+        <v>26</v>
+      </c>
+      <c r="L5" s="1">
+        <v>51</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="1">
+        <v>27</v>
+      </c>
+      <c r="F6" s="1">
+        <v>41</v>
+      </c>
+      <c r="G6" s="1">
+        <v>15</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="1">
+        <v>23</v>
+      </c>
+      <c r="L6" s="1">
+        <v>54</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="1">
+        <v>28</v>
+      </c>
+      <c r="F7" s="1">
+        <v>42</v>
+      </c>
+      <c r="G7" s="1">
+        <v>16</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="1">
+        <v>24</v>
+      </c>
+      <c r="L7" s="1">
+        <v>53</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="1">
+        <v>29</v>
+      </c>
+      <c r="F8" s="1">
+        <v>43</v>
+      </c>
+      <c r="G8" s="1">
+        <v>17</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="1">
+        <v>25</v>
+      </c>
+      <c r="L8" s="1">
+        <v>52</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="1">
+        <v>30</v>
+      </c>
+      <c r="F9" s="1">
+        <v>44</v>
+      </c>
+      <c r="G9" s="1">
+        <v>18</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="1">
+        <v>26</v>
+      </c>
+      <c r="L9" s="1">
+        <v>51</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="1">
+        <v>27</v>
+      </c>
+      <c r="F10" s="1">
+        <v>41</v>
+      </c>
+      <c r="G10" s="1">
+        <v>15</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="1">
+        <v>23</v>
+      </c>
+      <c r="L10" s="1">
+        <v>54</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="1">
+        <v>28</v>
+      </c>
+      <c r="F11" s="1">
+        <v>42</v>
+      </c>
+      <c r="G11" s="1">
+        <v>16</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="1">
+        <v>24</v>
+      </c>
+      <c r="L11" s="1">
+        <v>53</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="1">
+        <v>29</v>
+      </c>
+      <c r="F12" s="1">
+        <v>43</v>
+      </c>
+      <c r="G12" s="1">
+        <v>17</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="1">
+        <v>25</v>
+      </c>
+      <c r="L12" s="1">
+        <v>52</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="1">
+        <v>30</v>
+      </c>
+      <c r="F13" s="1">
+        <v>44</v>
+      </c>
+      <c r="G13" s="1">
+        <v>18</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K13" s="1">
+        <v>26</v>
+      </c>
+      <c r="L13" s="1">
+        <v>51</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="1">
+        <v>27</v>
+      </c>
+      <c r="F14" s="1">
+        <v>41</v>
+      </c>
+      <c r="G14" s="1">
+        <v>15</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="1">
+        <v>23</v>
+      </c>
+      <c r="L14" s="1">
+        <v>54</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="1">
+        <v>28</v>
+      </c>
+      <c r="F15" s="1">
+        <v>42</v>
+      </c>
+      <c r="G15" s="1">
+        <v>16</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="1">
+        <v>24</v>
+      </c>
+      <c r="L15" s="1">
+        <v>53</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="1">
+        <v>29</v>
+      </c>
+      <c r="F16" s="1">
+        <v>43</v>
+      </c>
+      <c r="G16" s="1">
+        <v>17</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" s="1">
+        <v>25</v>
+      </c>
+      <c r="L16" s="1">
+        <v>52</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="1">
+        <v>30</v>
+      </c>
+      <c r="F17" s="1">
+        <v>44</v>
+      </c>
+      <c r="G17" s="1">
+        <v>18</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" s="1">
+        <v>26</v>
+      </c>
+      <c r="L17" s="1">
+        <v>51</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" s="1">
+        <v>27</v>
+      </c>
+      <c r="F18" s="1">
+        <v>41</v>
+      </c>
+      <c r="G18" s="1">
+        <v>15</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K18" s="1">
+        <v>23</v>
+      </c>
+      <c r="L18" s="1">
+        <v>54</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="1">
+        <v>28</v>
+      </c>
+      <c r="F19" s="1">
+        <v>42</v>
+      </c>
+      <c r="G19" s="1">
+        <v>16</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K19" s="1">
+        <v>24</v>
+      </c>
+      <c r="L19" s="1">
+        <v>53</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="1">
+        <v>29</v>
+      </c>
+      <c r="F20" s="1">
+        <v>43</v>
+      </c>
+      <c r="G20" s="1">
+        <v>17</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K20" s="1">
+        <v>25</v>
+      </c>
+      <c r="L20" s="1">
+        <v>52</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="1">
+        <v>30</v>
+      </c>
+      <c r="F21" s="1">
+        <v>44</v>
+      </c>
+      <c r="G21" s="1">
+        <v>18</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K21" s="1">
+        <v>26</v>
+      </c>
+      <c r="L21" s="1">
+        <v>51</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="1">
+        <v>27</v>
+      </c>
+      <c r="F22" s="1">
+        <v>41</v>
+      </c>
+      <c r="G22" s="1">
+        <v>15</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K22" s="1">
+        <v>23</v>
+      </c>
+      <c r="L22" s="1">
+        <v>54</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="1">
+        <v>28</v>
+      </c>
+      <c r="F23" s="1">
+        <v>42</v>
+      </c>
+      <c r="G23" s="1">
+        <v>16</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K23" s="1">
+        <v>24</v>
+      </c>
+      <c r="L23" s="1">
+        <v>53</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="1">
+        <v>29</v>
+      </c>
+      <c r="F24" s="1">
+        <v>43</v>
+      </c>
+      <c r="G24" s="1">
+        <v>17</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K24" s="1">
+        <v>25</v>
+      </c>
+      <c r="L24" s="1">
+        <v>52</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="1">
+        <v>30</v>
+      </c>
+      <c r="F25" s="1">
+        <v>44</v>
+      </c>
+      <c r="G25" s="1">
+        <v>18</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K25" s="1">
+        <v>26</v>
+      </c>
+      <c r="L25" s="1">
+        <v>51</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="1">
+        <v>27</v>
+      </c>
+      <c r="F26" s="1">
+        <v>41</v>
+      </c>
+      <c r="G26" s="1">
+        <v>15</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K26" s="1">
+        <v>23</v>
+      </c>
+      <c r="L26" s="1">
+        <v>54</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="1">
+        <v>28</v>
+      </c>
+      <c r="F27" s="1">
+        <v>42</v>
+      </c>
+      <c r="G27" s="1">
+        <v>16</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K27" s="1">
+        <v>24</v>
+      </c>
+      <c r="L27" s="1">
+        <v>53</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N27" s="1"/>
+    </row>
+    <row r="28" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="1">
+        <v>29</v>
+      </c>
+      <c r="F28" s="1">
+        <v>43</v>
+      </c>
+      <c r="G28" s="1">
+        <v>17</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K28" s="1">
+        <v>25</v>
+      </c>
+      <c r="L28" s="1">
+        <v>52</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="1">
+        <v>30</v>
+      </c>
+      <c r="F29" s="1">
+        <v>44</v>
+      </c>
+      <c r="G29" s="1">
+        <v>18</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K29" s="1">
+        <v>26</v>
+      </c>
+      <c r="L29" s="1">
+        <v>51</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="1">
+        <v>27</v>
+      </c>
+      <c r="F30" s="1">
+        <v>41</v>
+      </c>
+      <c r="G30" s="1">
+        <v>15</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K30" s="1">
+        <v>23</v>
+      </c>
+      <c r="L30" s="1">
+        <v>54</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="1">
+        <v>27</v>
+      </c>
+      <c r="F31" s="1">
+        <v>41</v>
+      </c>
+      <c r="G31" s="1">
+        <v>15</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K31" s="1">
+        <v>23</v>
+      </c>
+      <c r="L31" s="1">
+        <v>54</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N31" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/cucumberframework/InputExcelData/Measurement.xlsx
+++ b/cucumberframework/InputExcelData/Measurement.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g6\git\uma_local_repository\TouchPointFramework\cucumberframework\InputExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g6\git\TouchPointFramework1\cucumberframework\InputExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA2BC37-90F0-4EA3-ADDE-3C33D9F50D88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E4F916B-30A8-49FE-B628-21FB72ACB09B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="imagesheet" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="8" r:id="rId6"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="77">
   <si>
     <t>Room</t>
   </si>
@@ -196,13 +199,81 @@
   </si>
   <si>
     <t>Height1</t>
+  </si>
+  <si>
+    <t>image size&gt;6mb</t>
+  </si>
+  <si>
+    <t>door-measure1.jpg</t>
+  </si>
+  <si>
+    <t>door-measure2.jpg</t>
+  </si>
+  <si>
+    <t>door-measure3.jpg</t>
+  </si>
+  <si>
+    <t>door-measure4.jpg</t>
+  </si>
+  <si>
+    <t>door-measure5.jpg</t>
+  </si>
+  <si>
+    <t>Sl.No</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>QA status</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>1/16</t>
+  </si>
+  <si>
+    <t>1/8</t>
+  </si>
+  <si>
+    <t>3/16</t>
+  </si>
+  <si>
+    <t>1/4</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>7/16</t>
+  </si>
+  <si>
+    <t>1/2</t>
+  </si>
+  <si>
+    <t>3/4</t>
+  </si>
+  <si>
+    <t>5/8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,6 +307,18 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -245,7 +328,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -253,11 +336,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -268,6 +366,42 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -550,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:O1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -793,7 +927,7 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:M2"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -847,9 +981,11 @@
       <c r="M1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="3"/>
-    </row>
-    <row r="2" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N1" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
@@ -889,8 +1025,11 @@
       <c r="M2" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N2" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>25</v>
       </c>
@@ -930,8 +1069,11 @@
       <c r="M3" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N3" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>25</v>
       </c>
@@ -971,8 +1113,11 @@
       <c r="M4" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N4" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>25</v>
       </c>
@@ -1012,8 +1157,11 @@
       <c r="M5" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N5" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>25</v>
       </c>
@@ -1053,8 +1201,11 @@
       <c r="M6" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N6" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>25</v>
       </c>
@@ -1094,8 +1245,11 @@
       <c r="M7" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N7" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -1135,8 +1289,11 @@
       <c r="M8" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N8" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>25</v>
       </c>
@@ -1176,8 +1333,11 @@
       <c r="M9" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N9" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>29</v>
       </c>
@@ -1217,8 +1377,11 @@
       <c r="M10" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N10" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>25</v>
       </c>
@@ -1258,8 +1421,11 @@
       <c r="M11" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N11" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -1299,8 +1465,11 @@
       <c r="M12" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N12" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>25</v>
       </c>
@@ -1340,8 +1509,11 @@
       <c r="M13" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N13" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>29</v>
       </c>
@@ -1381,8 +1553,11 @@
       <c r="M14" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N14" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>25</v>
       </c>
@@ -1422,8 +1597,11 @@
       <c r="M15" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N15" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -1463,8 +1641,11 @@
       <c r="M16" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N16" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>25</v>
       </c>
@@ -1504,8 +1685,11 @@
       <c r="M17" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N17" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>29</v>
       </c>
@@ -1545,8 +1729,11 @@
       <c r="M18" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N18" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>25</v>
       </c>
@@ -1586,8 +1773,11 @@
       <c r="M19" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N19" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -1627,8 +1817,11 @@
       <c r="M20" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N20" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>25</v>
       </c>
@@ -1668,8 +1861,11 @@
       <c r="M21" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N21" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>29</v>
       </c>
@@ -1709,8 +1905,11 @@
       <c r="M22" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N22" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>25</v>
       </c>
@@ -1750,8 +1949,11 @@
       <c r="M23" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N23" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -1791,8 +1993,11 @@
       <c r="M24" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N24" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>25</v>
       </c>
@@ -1832,8 +2037,11 @@
       <c r="M25" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N25" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>29</v>
       </c>
@@ -1873,8 +2081,11 @@
       <c r="M26" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N26" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>25</v>
       </c>
@@ -1914,8 +2125,11 @@
       <c r="M27" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N27" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1955,8 +2169,11 @@
       <c r="M28" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N28" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A29" s="5" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2213,11 @@
       <c r="M29" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N29" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="5" t="s">
         <v>29</v>
       </c>
@@ -2037,8 +2257,11 @@
       <c r="M30" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N30" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
         <v>25</v>
       </c>
@@ -2078,8 +2301,11 @@
       <c r="M31" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N31" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -2118,6 +2344,9 @@
       </c>
       <c r="M32" s="1" t="s">
         <v>46</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2224,6 +2453,393 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3536524D-E59D-43DC-8962-CCDEE6BB051D}">
+  <dimension ref="A1:N9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="3"/>
+    </row>
+    <row r="2" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="1">
+        <v>27</v>
+      </c>
+      <c r="F2" s="1">
+        <v>41</v>
+      </c>
+      <c r="G2" s="1">
+        <v>15</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1">
+        <v>23</v>
+      </c>
+      <c r="L2" s="1">
+        <v>54</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="1">
+        <v>28</v>
+      </c>
+      <c r="F3" s="1">
+        <v>42</v>
+      </c>
+      <c r="G3" s="1">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="1">
+        <v>24</v>
+      </c>
+      <c r="L3" s="1">
+        <v>53</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="1">
+        <v>27</v>
+      </c>
+      <c r="F4" s="1">
+        <v>41</v>
+      </c>
+      <c r="G4" s="1">
+        <v>15</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="1">
+        <v>23</v>
+      </c>
+      <c r="L4" s="1">
+        <v>54</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="1">
+        <v>28</v>
+      </c>
+      <c r="F5" s="1">
+        <v>42</v>
+      </c>
+      <c r="G5" s="1">
+        <v>16</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="1">
+        <v>24</v>
+      </c>
+      <c r="L5" s="1">
+        <v>55</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="1">
+        <v>27</v>
+      </c>
+      <c r="F6" s="1">
+        <v>41</v>
+      </c>
+      <c r="G6" s="1">
+        <v>15</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="1">
+        <v>23</v>
+      </c>
+      <c r="L6" s="1">
+        <v>54</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="1">
+        <v>21</v>
+      </c>
+      <c r="F7" s="1">
+        <v>43</v>
+      </c>
+      <c r="G7" s="1">
+        <v>16</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="1">
+        <v>24</v>
+      </c>
+      <c r="L7" s="1">
+        <v>55</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="1">
+        <v>27</v>
+      </c>
+      <c r="F8" s="1">
+        <v>41</v>
+      </c>
+      <c r="G8" s="1">
+        <v>15</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="1">
+        <v>23</v>
+      </c>
+      <c r="L8" s="1">
+        <v>54</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="1">
+        <v>28</v>
+      </c>
+      <c r="F9" s="1">
+        <v>42</v>
+      </c>
+      <c r="G9" s="1">
+        <v>16</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="1">
+        <v>24</v>
+      </c>
+      <c r="L9" s="1">
+        <v>55</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A4E04AB-FA45-42C7-BE48-C90F10DFA4B1}">
   <dimension ref="A1:N31"/>
   <sheetViews>
@@ -3542,4 +4158,204 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5D1A621-7A2A-4FE9-BC2F-31348B9A750B}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="9.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15">
+        <v>24.640599999999999</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13">
+        <v>10.03125</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13">
+        <v>65.146249999999995</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12">
+        <v>26.1875</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11">
+        <v>23.25</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="13">
+        <v>43.09375</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="12">
+        <v>54.4375</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="12">
+        <v>12.5</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="12">
+        <v>47.78125</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EADDB904-06AA-412C-A4AD-CCF03B257167}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/cucumberframework/InputExcelData/Measurement.xlsx
+++ b/cucumberframework/InputExcelData/Measurement.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g6\git\TouchPointFramework1\cucumberframework\InputExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\git\TouchPointFramework\TouchPointFramework\cucumberframework\InputExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E4F916B-30A8-49FE-B628-21FB72ACB09B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8EDE1ED-2889-4AA2-BDB3-B4F58A34874F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -927,7 +927,7 @@
   <dimension ref="A1:N32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2456,8 +2456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3536524D-E59D-43DC-8962-CCDEE6BB051D}">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2719,7 +2719,7 @@
         <v>33</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>24</v>
@@ -4164,7 +4164,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5D1A621-7A2A-4FE9-BC2F-31348B9A750B}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
